--- a/excel functions and formulas.xlsx
+++ b/excel functions and formulas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/be8f436690462624/Desktop/excel task 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9E4C8550-5777-4300-BF40-A519719CCD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{9E4C8550-5777-4300-BF40-A519719CCD81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AF3EC6B-D4BD-4C70-8410-72CE68F72776}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{483FFF1D-DF24-4B32-82B8-90145BAEBB37}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="10" xr2:uid="{483FFF1D-DF24-4B32-82B8-90145BAEBB37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -1080,6 +1080,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1090,11 +1091,10 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="8" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1412,8 +1412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B080FA-48AC-45E3-B21C-A46FB74A59CF}">
   <dimension ref="A1:E33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,12 +1424,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="59" t="s">
+      <c r="A1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="59"/>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
       <c r="E1" s="1"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1693,7 +1693,7 @@
       <c r="B19" s="9"/>
       <c r="C19" s="1"/>
       <c r="D19" s="10">
-        <f>INDEX(E4:E15,MATCH("Estelle Cormack",B4:B15,))</f>
+        <f>INDEX(E4:E15,MATCH("Estelle Cormack",B4:B15,0))</f>
         <v>30</v>
       </c>
       <c r="E19" s="1"/>
@@ -1706,11 +1706,11 @@
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B21" s="60"/>
-      <c r="C21" s="60"/>
+      <c r="B21" s="61"/>
+      <c r="C21" s="61"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
@@ -1776,11 +1776,11 @@
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
+      <c r="B28" s="61"/>
+      <c r="C28" s="61"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
@@ -1819,7 +1819,7 @@
         <v>33</v>
       </c>
       <c r="B32" s="13" t="str">
-        <f>IFERROR(INDEX(D4:D15,MATCH("Johnny Slash",B4:B15,)),"Not Available")</f>
+        <f>IFERROR(INDEX(D4:D15,MATCH("Johnny Slash",B4:B15,0)),"Not Available")</f>
         <v>Not Available</v>
       </c>
       <c r="C32" s="1"/>
@@ -1853,7 +1853,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2060,8 +2060,8 @@
       <c r="H11" s="1"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
-      <c r="B12" s="60"/>
+      <c r="A12" s="61"/>
+      <c r="B12" s="61"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
@@ -2070,8 +2070,8 @@
       <c r="H12" s="1"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="61"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -2126,8 +2126,8 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="60"/>
-      <c r="B17" s="60"/>
+      <c r="A17" s="61"/>
+      <c r="B17" s="61"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -2153,8 +2153,8 @@
       </c>
     </row>
     <row r="19" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="61"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -2211,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E56E9D-394F-4574-9813-818058276788}">
   <dimension ref="A1:K25"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2225,8 +2225,8 @@
       <c r="B1" s="53" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
       <c r="E1" s="52"/>
       <c r="F1" s="52"/>
       <c r="G1" s="52"/>
@@ -2238,11 +2238,11 @@
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="52"/>
       <c r="B2" s="52"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
       <c r="E2" s="52"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
       <c r="H2" s="52"/>
       <c r="I2" s="52"/>
       <c r="J2" s="52"/>
@@ -2426,11 +2426,11 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="52"/>
       <c r="B10" s="52"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="71"/>
       <c r="E10" s="52"/>
-      <c r="F10" s="68"/>
-      <c r="G10" s="68"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="52"/>
       <c r="I10" s="52"/>
       <c r="J10" s="52"/>
@@ -2443,11 +2443,11 @@
       <c r="B11" s="56" t="s">
         <v>205</v>
       </c>
-      <c r="C11" s="66"/>
-      <c r="D11" s="66"/>
+      <c r="C11" s="67"/>
+      <c r="D11" s="67"/>
       <c r="E11" s="52"/>
-      <c r="F11" s="66"/>
-      <c r="G11" s="66"/>
+      <c r="F11" s="67"/>
+      <c r="G11" s="67"/>
       <c r="H11" s="52"/>
       <c r="I11" s="52"/>
       <c r="J11" s="52"/>
@@ -2461,8 +2461,8 @@
       </c>
       <c r="D12" s="69"/>
       <c r="E12" s="52"/>
-      <c r="F12" s="66"/>
-      <c r="G12" s="66"/>
+      <c r="F12" s="67"/>
+      <c r="G12" s="67"/>
       <c r="H12" s="52"/>
       <c r="I12" s="52"/>
       <c r="J12" s="52"/>
@@ -2479,8 +2479,8 @@
       </c>
       <c r="D13" s="52"/>
       <c r="E13" s="52"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
       <c r="H13" s="52"/>
       <c r="I13" s="57"/>
       <c r="J13" s="52"/>
@@ -2489,11 +2489,11 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="52"/>
       <c r="B14" s="52"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
+      <c r="C14" s="68"/>
+      <c r="D14" s="68"/>
       <c r="E14" s="52"/>
-      <c r="F14" s="66"/>
-      <c r="G14" s="66"/>
+      <c r="F14" s="67"/>
+      <c r="G14" s="67"/>
       <c r="H14" s="52"/>
       <c r="I14" s="52"/>
       <c r="J14" s="52"/>
@@ -2519,11 +2519,11 @@
       <c r="B16" s="56" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="66"/>
-      <c r="D16" s="66"/>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
       <c r="E16" s="52"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="66"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="52"/>
       <c r="I16" s="52"/>
       <c r="J16" s="52"/>
@@ -2532,11 +2532,11 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="52"/>
       <c r="B17" s="52"/>
-      <c r="C17" s="66"/>
-      <c r="D17" s="66"/>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
       <c r="E17" s="52"/>
-      <c r="F17" s="66"/>
-      <c r="G17" s="66"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
       <c r="H17" s="52"/>
       <c r="I17" s="52"/>
       <c r="J17" s="52"/>
@@ -2550,8 +2550,8 @@
       </c>
       <c r="D18" s="69"/>
       <c r="E18" s="52"/>
-      <c r="F18" s="66"/>
-      <c r="G18" s="66"/>
+      <c r="F18" s="67"/>
+      <c r="G18" s="67"/>
       <c r="H18" s="52"/>
       <c r="I18" s="52"/>
       <c r="J18" s="52"/>
@@ -2568,8 +2568,8 @@
       </c>
       <c r="D19" s="52"/>
       <c r="E19" s="52"/>
-      <c r="F19" s="66"/>
-      <c r="G19" s="66"/>
+      <c r="F19" s="67"/>
+      <c r="G19" s="67"/>
       <c r="H19" s="52"/>
       <c r="I19" s="52"/>
       <c r="J19" s="52"/>
@@ -2578,11 +2578,11 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="52"/>
       <c r="B20" s="52"/>
-      <c r="C20" s="66"/>
-      <c r="D20" s="66"/>
+      <c r="C20" s="67"/>
+      <c r="D20" s="67"/>
       <c r="E20" s="52"/>
-      <c r="F20" s="66"/>
-      <c r="G20" s="66"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="67"/>
       <c r="H20" s="52"/>
       <c r="I20" s="52"/>
       <c r="J20" s="52"/>
@@ -2591,11 +2591,11 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="52"/>
       <c r="B21" s="52"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
+      <c r="C21" s="68"/>
+      <c r="D21" s="68"/>
       <c r="E21" s="52"/>
-      <c r="F21" s="66"/>
-      <c r="G21" s="66"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="67"/>
       <c r="H21" s="52"/>
       <c r="I21" s="52"/>
       <c r="J21" s="52"/>
@@ -2608,11 +2608,11 @@
       <c r="B22" s="56" t="s">
         <v>207</v>
       </c>
-      <c r="C22" s="66"/>
-      <c r="D22" s="66"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="67"/>
       <c r="E22" s="52"/>
-      <c r="F22" s="66"/>
-      <c r="G22" s="66"/>
+      <c r="F22" s="67"/>
+      <c r="G22" s="67"/>
       <c r="H22" s="52"/>
       <c r="I22" s="52"/>
       <c r="J22" s="52"/>
@@ -2626,8 +2626,8 @@
       </c>
       <c r="D23" s="69"/>
       <c r="E23" s="52"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
+      <c r="F23" s="67"/>
+      <c r="G23" s="67"/>
       <c r="H23" s="52"/>
       <c r="I23" s="52"/>
       <c r="J23" s="52"/>
@@ -2644,8 +2644,8 @@
       </c>
       <c r="D24" s="52"/>
       <c r="E24" s="52"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
+      <c r="F24" s="67"/>
+      <c r="G24" s="67"/>
       <c r="H24" s="52"/>
       <c r="I24" s="52"/>
       <c r="J24" s="52"/>
@@ -2654,11 +2654,11 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="52"/>
       <c r="B25" s="52"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="66"/>
+      <c r="C25" s="67"/>
+      <c r="D25" s="67"/>
       <c r="E25" s="52"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="52"/>
       <c r="I25" s="52"/>
       <c r="J25" s="52"/>
@@ -2666,15 +2666,13 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="F10:G10"/>
     <mergeCell ref="C20:D20"/>
     <mergeCell ref="F20:G20"/>
     <mergeCell ref="C12:D12"/>
@@ -2689,13 +2687,15 @@
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="F18:G18"/>
     <mergeCell ref="F19:G19"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="F10:G10"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="F23:G23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2706,7 +2706,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2776,10 +2776,10 @@
       <c r="A7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="B7" s="71">
+      <c r="B7" s="59">
         <v>94</v>
       </c>
-      <c r="C7" s="71">
+      <c r="C7" s="59">
         <v>94</v>
       </c>
       <c r="D7" s="19" t="str">
@@ -2792,10 +2792,10 @@
       <c r="A8" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="71">
+      <c r="B8" s="59">
         <v>109</v>
       </c>
-      <c r="C8" s="71">
+      <c r="C8" s="59">
         <v>109</v>
       </c>
       <c r="D8" s="19" t="str">
@@ -2808,10 +2808,10 @@
       <c r="A9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="B9" s="71">
+      <c r="B9" s="59">
         <v>85</v>
       </c>
-      <c r="C9" s="71">
+      <c r="C9" s="59">
         <v>85.5</v>
       </c>
       <c r="D9" s="19" t="str">
@@ -2824,10 +2824,10 @@
       <c r="A10" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="B10" s="71">
+      <c r="B10" s="59">
         <v>12</v>
       </c>
-      <c r="C10" s="71">
+      <c r="C10" s="59">
         <v>12</v>
       </c>
       <c r="D10" s="19" t="str">
@@ -2847,7 +2847,7 @@
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9:F16"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2879,8 +2879,8 @@
       <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
-      <c r="B3" s="61"/>
+      <c r="A3" s="62"/>
+      <c r="B3" s="62"/>
       <c r="C3" s="9"/>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -2903,8 +2903,8 @@
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
-      <c r="B5" s="61"/>
+      <c r="A5" s="62"/>
+      <c r="B5" s="62"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -2913,8 +2913,8 @@
       <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
-      <c r="B6" s="61"/>
+      <c r="A6" s="62"/>
+      <c r="B6" s="62"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -2923,8 +2923,8 @@
       <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="62"/>
-      <c r="B7" s="62"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="63"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="18" t="s">
@@ -3148,7 +3148,7 @@
   <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3355,7 +3355,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3476,8 +3476,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBF8DF13-1CBE-48B2-9D33-1110CCC4B980}">
   <dimension ref="A1:F34"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3487,17 +3487,17 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="3"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="60" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="60"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="59"/>
-      <c r="B2" s="59"/>
+      <c r="A2" s="60"/>
+      <c r="B2" s="60"/>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -3738,8 +3738,8 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="59"/>
+      <c r="A16" s="60"/>
+      <c r="B16" s="60"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -3761,8 +3761,8 @@
       <c r="F17" s="1"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="59"/>
+      <c r="A18" s="60"/>
+      <c r="B18" s="60"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -3778,14 +3778,14 @@
       <c r="C19" s="9"/>
       <c r="D19" s="1"/>
       <c r="E19" s="10">
-        <f>INDEX(F4:F15,MATCH("Estelle Cormack",C4:C15,))</f>
+        <f>INDEX(F4:F15,MATCH("Estelle Cormack",C4:C15,0))</f>
         <v>30</v>
       </c>
       <c r="F19" s="1"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="59"/>
+      <c r="A20" s="60"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -3795,17 +3795,17 @@
       <c r="A21" s="30">
         <v>3</v>
       </c>
-      <c r="B21" s="60" t="s">
+      <c r="B21" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="C21" s="60"/>
-      <c r="D21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="61"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59"/>
+      <c r="A22" s="60"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -3863,8 +3863,8 @@
       <c r="F26" s="1"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="59"/>
-      <c r="B27" s="59"/>
+      <c r="A27" s="60"/>
+      <c r="B27" s="60"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -3874,17 +3874,17 @@
       <c r="A28" s="30">
         <v>4</v>
       </c>
-      <c r="B28" s="60" t="s">
+      <c r="B28" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="61"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="59"/>
-      <c r="B29" s="59"/>
+      <c r="A29" s="60"/>
+      <c r="B29" s="60"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -3921,7 +3921,7 @@
         <v>33</v>
       </c>
       <c r="C32" s="13" t="str">
-        <f>IFERROR(INDEX(E4:E15,MATCH("Johnny Slash",C4:C15,)),"Not Available")</f>
+        <f>IFERROR(INDEX(E4:E15,MATCH("Johnny Slash",C4:C15,0)),"Not Available")</f>
         <v>Not Available</v>
       </c>
       <c r="D32" s="1"/>
@@ -3942,8 +3942,8 @@
       <c r="F33" s="1"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="59"/>
-      <c r="B34" s="59"/>
+      <c r="A34" s="60"/>
+      <c r="B34" s="60"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -3951,17 +3951,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A34:B34"/>
     <mergeCell ref="B21:D21"/>
     <mergeCell ref="B1:E1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A18:B18"/>
     <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A34:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4218,8 +4218,8 @@
       <c r="J12" s="31"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="63"/>
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
       <c r="E13" s="31"/>
@@ -4230,8 +4230,8 @@
       <c r="J13" s="31"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63"/>
+      <c r="A14" s="64"/>
+      <c r="B14" s="64"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
       <c r="E14" s="31"/>
@@ -4256,8 +4256,8 @@
       <c r="J15" s="31"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="63"/>
+      <c r="A16" s="64"/>
+      <c r="B16" s="64"/>
       <c r="C16" s="31"/>
       <c r="D16" s="31"/>
       <c r="E16" s="31"/>
@@ -4286,8 +4286,8 @@
       <c r="J17" s="31"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="63"/>
-      <c r="B18" s="63"/>
+      <c r="A18" s="64"/>
+      <c r="B18" s="64"/>
       <c r="C18" s="36" t="s">
         <v>118</v>
       </c>
@@ -4317,8 +4317,8 @@
       <c r="J19" s="31"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="63"/>
+      <c r="A20" s="64"/>
+      <c r="B20" s="64"/>
       <c r="C20" s="31"/>
       <c r="D20" s="31"/>
       <c r="E20" s="31"/>
@@ -4345,8 +4345,8 @@
       <c r="J21" s="31"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="63"/>
+      <c r="A22" s="64"/>
+      <c r="B22" s="64"/>
       <c r="C22" s="36" t="s">
         <v>118</v>
       </c>
@@ -4376,8 +4376,8 @@
       <c r="J23" s="31"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="63"/>
+      <c r="A24" s="64"/>
+      <c r="B24" s="64"/>
       <c r="C24" s="31"/>
       <c r="D24" s="31"/>
       <c r="E24" s="31"/>
@@ -4404,8 +4404,8 @@
       <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="63"/>
-      <c r="B26" s="63"/>
+      <c r="A26" s="64"/>
+      <c r="B26" s="64"/>
       <c r="C26" s="36" t="s">
         <v>118</v>
       </c>
@@ -4435,8 +4435,8 @@
       <c r="J27" s="31"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="63"/>
+      <c r="A28" s="64"/>
+      <c r="B28" s="64"/>
       <c r="C28" s="31" t="str">
         <v/>
       </c>
@@ -4509,7 +4509,7 @@
   <dimension ref="A1:H27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4910,8 +4910,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BCC235A-D2B5-4276-A5B4-523F976F92DD}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4929,8 +4929,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="65"/>
-      <c r="B1" s="65"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="66"/>
       <c r="C1" s="43"/>
       <c r="D1" s="43"/>
       <c r="E1" s="43"/>
@@ -5175,8 +5175,8 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="65"/>
+      <c r="A9" s="66"/>
+      <c r="B9" s="66"/>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="43"/>
@@ -5207,8 +5207,8 @@
       <c r="L10" s="43"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="64"/>
-      <c r="B11" s="64"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="65"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="43"/>
@@ -5240,8 +5240,8 @@
       <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="64"/>
-      <c r="B13" s="64"/>
+      <c r="A13" s="65"/>
+      <c r="B13" s="65"/>
       <c r="C13" s="43"/>
       <c r="D13" s="43"/>
       <c r="E13" s="43"/>
@@ -5272,8 +5272,8 @@
       <c r="L14" s="43"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="64"/>
-      <c r="B15" s="64"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="43"/>
@@ -5305,8 +5305,8 @@
       <c r="L16" s="43"/>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" s="64"/>
-      <c r="B17" s="64"/>
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
       <c r="C17" s="43"/>
       <c r="D17" s="43"/>
       <c r="E17" s="43"/>
@@ -5319,8 +5319,8 @@
       <c r="L17" s="43"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A18" s="64"/>
-      <c r="B18" s="64"/>
+      <c r="A18" s="65"/>
+      <c r="B18" s="65"/>
       <c r="C18" s="43"/>
       <c r="D18" s="43"/>
       <c r="E18" s="43"/>
@@ -5370,8 +5370,8 @@
       <c r="L20" s="43"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
       <c r="C21" s="43"/>
       <c r="D21" s="43"/>
       <c r="E21" s="43"/>
@@ -5384,8 +5384,8 @@
       <c r="L21" s="43"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="64"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="65"/>
       <c r="C22" s="43"/>
       <c r="D22" s="43"/>
       <c r="E22" s="43"/>
